--- a/Arbeitsplan/2022_03_16_1-Iteration_Arbeitsplan.xlsx
+++ b/Arbeitsplan/2022_03_16_1-Iteration_Arbeitsplan.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolicfilip/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kevin\Documents\PSE_DELIVERABLES\Arbeitsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F51AB23-D850-AD4F-B606-D4F15CD524C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E53A24-80E8-4CFC-A3F1-439DDDBED8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
+    <workbookView xWindow="7530" yWindow="3150" windowWidth="27945" windowHeight="17850" xr2:uid="{A00449F3-C053-4321-96E1-F3AFB2D0F8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -649,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -762,9 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -773,22 +780,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,6 +799,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -821,14 +825,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,28 +1506,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD384E66-6977-4A33-945E-14F730629694}">
   <dimension ref="A1:CY105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="6" max="102" width="5.6640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="6" max="102" width="5.7109375" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:103" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="30">
         <v>44615</v>
       </c>
@@ -1814,7 +1821,7 @@
       </c>
       <c r="CY1" s="17"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1919,7 +1926,7 @@
       <c r="CX2" s="33"/>
       <c r="CY2" s="21"/>
     </row>
-    <row r="3" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2030,7 +2037,7 @@
       <c r="CX3" s="36"/>
       <c r="CY3" s="21"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2152,7 @@
       <c r="CX4" s="39"/>
       <c r="CY4" s="21"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2260,8 +2267,8 @@
       <c r="CX5" s="42"/>
       <c r="CY5" s="21"/>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2270,27 +2277,27 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="63">
         <v>23.02</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="65">
         <v>16.03</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
       <c r="U6" s="52">
         <v>2</v>
       </c>
@@ -2300,112 +2307,112 @@
       <c r="W6" s="52">
         <v>1</v>
       </c>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="78"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="78"/>
-      <c r="BI6" s="78"/>
-      <c r="BJ6" s="78"/>
-      <c r="BK6" s="78"/>
-      <c r="BL6" s="78"/>
-      <c r="BM6" s="78"/>
-      <c r="BN6" s="78"/>
-      <c r="BO6" s="78"/>
-      <c r="BP6" s="78"/>
-      <c r="BQ6" s="78"/>
-      <c r="BR6" s="78"/>
-      <c r="BS6" s="78"/>
-      <c r="BT6" s="78"/>
-      <c r="BU6" s="78"/>
-      <c r="BV6" s="78"/>
-      <c r="BW6" s="78"/>
-      <c r="BX6" s="78"/>
-      <c r="BY6" s="78"/>
-      <c r="BZ6" s="78"/>
-      <c r="CA6" s="78"/>
-      <c r="CB6" s="78"/>
-      <c r="CC6" s="78"/>
-      <c r="CD6" s="78"/>
-      <c r="CE6" s="78"/>
-      <c r="CF6" s="78"/>
-      <c r="CG6" s="78"/>
-      <c r="CH6" s="78"/>
-      <c r="CI6" s="78"/>
-      <c r="CJ6" s="78"/>
-      <c r="CK6" s="78"/>
-      <c r="CL6" s="78"/>
-      <c r="CM6" s="78"/>
-      <c r="CN6" s="78"/>
-      <c r="CO6" s="78"/>
-      <c r="CP6" s="78"/>
-      <c r="CQ6" s="78"/>
-      <c r="CR6" s="78"/>
-      <c r="CS6" s="78"/>
-      <c r="CT6" s="78"/>
-      <c r="CU6" s="78"/>
-      <c r="CV6" s="78"/>
-      <c r="CW6" s="78"/>
-      <c r="CX6" s="79"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="61"/>
+      <c r="BL6" s="61"/>
+      <c r="BM6" s="61"/>
+      <c r="BN6" s="61"/>
+      <c r="BO6" s="61"/>
+      <c r="BP6" s="61"/>
+      <c r="BQ6" s="61"/>
+      <c r="BR6" s="61"/>
+      <c r="BS6" s="61"/>
+      <c r="BT6" s="61"/>
+      <c r="BU6" s="61"/>
+      <c r="BV6" s="61"/>
+      <c r="BW6" s="61"/>
+      <c r="BX6" s="61"/>
+      <c r="BY6" s="61"/>
+      <c r="BZ6" s="61"/>
+      <c r="CA6" s="61"/>
+      <c r="CB6" s="61"/>
+      <c r="CC6" s="61"/>
+      <c r="CD6" s="61"/>
+      <c r="CE6" s="61"/>
+      <c r="CF6" s="61"/>
+      <c r="CG6" s="61"/>
+      <c r="CH6" s="61"/>
+      <c r="CI6" s="61"/>
+      <c r="CJ6" s="61"/>
+      <c r="CK6" s="61"/>
+      <c r="CL6" s="61"/>
+      <c r="CM6" s="61"/>
+      <c r="CN6" s="61"/>
+      <c r="CO6" s="61"/>
+      <c r="CP6" s="61"/>
+      <c r="CQ6" s="61"/>
+      <c r="CR6" s="61"/>
+      <c r="CS6" s="61"/>
+      <c r="CT6" s="61"/>
+      <c r="CU6" s="61"/>
+      <c r="CV6" s="61"/>
+      <c r="CW6" s="61"/>
+      <c r="CX6" s="62"/>
       <c r="CY6" s="21"/>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
       <c r="U7" s="53">
         <v>1</v>
       </c>
@@ -2415,89 +2422,89 @@
       <c r="W7" s="53">
         <v>1</v>
       </c>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="78"/>
-      <c r="BN7" s="78"/>
-      <c r="BO7" s="78"/>
-      <c r="BP7" s="78"/>
-      <c r="BQ7" s="78"/>
-      <c r="BR7" s="78"/>
-      <c r="BS7" s="78"/>
-      <c r="BT7" s="78"/>
-      <c r="BU7" s="78"/>
-      <c r="BV7" s="78"/>
-      <c r="BW7" s="78"/>
-      <c r="BX7" s="78"/>
-      <c r="BY7" s="78"/>
-      <c r="BZ7" s="78"/>
-      <c r="CA7" s="78"/>
-      <c r="CB7" s="78"/>
-      <c r="CC7" s="78"/>
-      <c r="CD7" s="78"/>
-      <c r="CE7" s="78"/>
-      <c r="CF7" s="78"/>
-      <c r="CG7" s="78"/>
-      <c r="CH7" s="78"/>
-      <c r="CI7" s="78"/>
-      <c r="CJ7" s="78"/>
-      <c r="CK7" s="78"/>
-      <c r="CL7" s="78"/>
-      <c r="CM7" s="78"/>
-      <c r="CN7" s="78"/>
-      <c r="CO7" s="78"/>
-      <c r="CP7" s="78"/>
-      <c r="CQ7" s="78"/>
-      <c r="CR7" s="78"/>
-      <c r="CS7" s="78"/>
-      <c r="CT7" s="78"/>
-      <c r="CU7" s="78"/>
-      <c r="CV7" s="78"/>
-      <c r="CW7" s="78"/>
-      <c r="CX7" s="79"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="61"/>
+      <c r="CA7" s="61"/>
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="61"/>
+      <c r="CD7" s="61"/>
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="61"/>
+      <c r="CG7" s="61"/>
+      <c r="CH7" s="61"/>
+      <c r="CI7" s="61"/>
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="61"/>
+      <c r="CN7" s="61"/>
+      <c r="CO7" s="61"/>
+      <c r="CP7" s="61"/>
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="61"/>
+      <c r="CS7" s="61"/>
+      <c r="CT7" s="61"/>
+      <c r="CU7" s="61"/>
+      <c r="CV7" s="61"/>
+      <c r="CW7" s="61"/>
+      <c r="CX7" s="62"/>
       <c r="CY7" s="21"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2506,10 +2513,10 @@
       <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="63">
         <v>23.02</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="65">
         <v>16.03</v>
       </c>
       <c r="F8" s="31"/>
@@ -2613,16 +2620,16 @@
       <c r="CX8" s="33"/>
       <c r="CY8" s="21"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2724,7 +2731,7 @@
       <c r="CX9" s="33"/>
       <c r="CY9" s="21"/>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2839,8 +2846,8 @@
       <c r="CX10" s="42"/>
       <c r="CY10" s="21"/>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2850,10 +2857,10 @@
         <f>SUM(F11:CX11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="63">
         <v>23.02</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="65">
         <v>16.03</v>
       </c>
       <c r="F11" s="31"/>
@@ -2957,8 +2964,8 @@
       <c r="CX11" s="33"/>
       <c r="CY11" s="21"/>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2966,8 +2973,8 @@
         <f>SUM(F12:CX12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -3069,21 +3076,21 @@
       <c r="CX12" s="33"/>
       <c r="CY12" s="21"/>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="58">
         <f>SUM(F13:CX13)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="63">
         <v>23.02</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="65">
         <v>16.03</v>
       </c>
       <c r="F13" s="31"/>
@@ -3189,17 +3196,17 @@
       <c r="CX13" s="33"/>
       <c r="CY13" s="21"/>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="58" t="s">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <f>SUM(F14:CX14)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="70"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -3215,12 +3222,20 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="U14" s="32"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="53">
+        <v>2</v>
+      </c>
       <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
+      <c r="X14" s="53">
+        <v>1</v>
+      </c>
       <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
+      <c r="Z14" s="53">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="53">
+        <v>1</v>
+      </c>
       <c r="AB14" s="32"/>
       <c r="AC14" s="32"/>
       <c r="AD14" s="32"/>
@@ -3298,8 +3313,8 @@
       <c r="CX14" s="33"/>
       <c r="CY14" s="21"/>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3413,18 +3428,18 @@
       <c r="CX15" s="42"/>
       <c r="CY15" s="21"/>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="63">
         <v>23.02</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="65">
         <v>16.03</v>
       </c>
       <c r="F16" s="31"/>
@@ -3526,16 +3541,16 @@
       <c r="CX16" s="33"/>
       <c r="CY16" s="21"/>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3635,7 +3650,7 @@
       <c r="CX17" s="33"/>
       <c r="CY17" s="21"/>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -3750,8 +3765,8 @@
       <c r="CX18" s="42"/>
       <c r="CY18" s="21"/>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3760,10 +3775,10 @@
       <c r="C19" s="54">
         <v>1</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="63">
         <v>23.02</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="65">
         <v>16.03</v>
       </c>
       <c r="F19" s="31"/>
@@ -3867,16 +3882,16 @@
       <c r="CX19" s="33"/>
       <c r="CY19" s="21"/>
     </row>
-    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
       <c r="B20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="54">
         <v>1</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="70"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="31"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -3978,20 +3993,21 @@
       <c r="CX20" s="33"/>
       <c r="CY20" s="21"/>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="54">
-        <v>3</v>
-      </c>
-      <c r="D21" s="67">
+        <f>SUM(F21:CX21)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="63">
         <v>23.02</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="65">
         <v>16.03</v>
       </c>
       <c r="F21" s="31"/>
@@ -4101,16 +4117,17 @@
       <c r="CX21" s="33"/>
       <c r="CY21" s="21"/>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="54">
-        <v>5</v>
-      </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="70"/>
+        <f>SUM(F22:CX22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -4210,7 +4227,7 @@
       <c r="CX22" s="33"/>
       <c r="CY22" s="21"/>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -4325,8 +4342,8 @@
       <c r="CX23" s="42"/>
       <c r="CY23" s="21"/>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -4335,10 +4352,10 @@
       <c r="C24" s="9">
         <v>4.5</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="63">
         <v>23.02</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="65">
         <v>16.03</v>
       </c>
       <c r="F24" s="31"/>
@@ -4448,16 +4465,16 @@
       <c r="CX24" s="33"/>
       <c r="CY24" s="21"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
+    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="9">
         <v>4.5</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="70"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="31"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -4565,8 +4582,8 @@
       <c r="CX25" s="33"/>
       <c r="CY25" s="21"/>
     </row>
-    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4575,10 +4592,10 @@
       <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="63">
         <v>23.02</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="65">
         <v>16.03</v>
       </c>
       <c r="F26" s="31"/>
@@ -4684,16 +4701,16 @@
       <c r="CX26" s="33"/>
       <c r="CY26" s="21"/>
     </row>
-    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
+    <row r="27" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4797,8 +4814,8 @@
       <c r="CX27" s="33"/>
       <c r="CY27" s="21"/>
     </row>
-    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
+    <row r="28" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4807,10 +4824,10 @@
       <c r="C28" s="9">
         <v>4</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="63">
         <v>23.02</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="65">
         <v>16.03</v>
       </c>
       <c r="F28" s="31"/>
@@ -4918,16 +4935,16 @@
       <c r="CX28" s="33"/>
       <c r="CY28" s="21"/>
     </row>
-    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+    <row r="29" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
       <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="9">
         <v>3</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="70"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="31"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -5033,16 +5050,16 @@
       <c r="CX29" s="33"/>
       <c r="CY29" s="21"/>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="65">
+      <c r="D30" s="75">
         <v>44636</v>
       </c>
-      <c r="E30" s="66"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -5142,7 +5159,7 @@
       <c r="CX30" s="33"/>
       <c r="CY30" s="21"/>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>13</v>
       </c>
@@ -5257,7 +5274,7 @@
       <c r="CX31" s="46"/>
       <c r="CY31" s="21"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -5372,18 +5389,18 @@
       <c r="CX32" s="42"/>
       <c r="CY32" s="21"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
       <c r="B33" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="77">
         <v>23.03</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="78">
         <v>6.04</v>
       </c>
       <c r="F33" s="31"/>
@@ -5485,16 +5502,16 @@
       <c r="CX33" s="33"/>
       <c r="CY33" s="21"/>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -5594,7 +5611,7 @@
       <c r="CX34" s="33"/>
       <c r="CY34" s="21"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
@@ -5709,18 +5726,18 @@
       <c r="CX35" s="42"/>
       <c r="CY35" s="21"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
       <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="77">
         <v>23.03</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="78">
         <v>6.04</v>
       </c>
       <c r="F36" s="31"/>
@@ -5822,16 +5839,16 @@
       <c r="CX36" s="33"/>
       <c r="CY36" s="21"/>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
       <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="31"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -5931,7 +5948,7 @@
       <c r="CX37" s="33"/>
       <c r="CY37" s="21"/>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -6046,18 +6063,18 @@
       <c r="CX38" s="42"/>
       <c r="CY38" s="21"/>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+    <row r="39" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
       <c r="B39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="77">
         <v>23.03</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="78">
         <v>6.04</v>
       </c>
       <c r="F39" s="31"/>
@@ -6159,16 +6176,16 @@
       <c r="CX39" s="33"/>
       <c r="CY39" s="21"/>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+    <row r="40" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -6268,7 +6285,7 @@
       <c r="CX40" s="33"/>
       <c r="CY40" s="21"/>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
@@ -6383,18 +6400,18 @@
       <c r="CX41" s="42"/>
       <c r="CY41" s="21"/>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
+    <row r="42" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
       <c r="B42" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="77">
         <v>23.03</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="78">
         <v>6.04</v>
       </c>
       <c r="F42" s="31"/>
@@ -6496,16 +6513,16 @@
       <c r="CX42" s="33"/>
       <c r="CY42" s="21"/>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
+    <row r="43" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
       <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
@@ -6605,7 +6622,7 @@
       <c r="CX43" s="33"/>
       <c r="CY43" s="21"/>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
@@ -6720,18 +6737,18 @@
       <c r="CX44" s="42"/>
       <c r="CY44" s="21"/>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
+    <row r="45" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
       <c r="B45" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="77">
         <v>23.03</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="78">
         <v>6.04</v>
       </c>
       <c r="F45" s="31"/>
@@ -6833,16 +6850,16 @@
       <c r="CX45" s="33"/>
       <c r="CY45" s="21"/>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
+    <row r="46" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A46" s="68"/>
       <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="78"/>
       <c r="F46" s="31"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -6942,16 +6959,16 @@
       <c r="CX46" s="33"/>
       <c r="CY46" s="21"/>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="65">
+      <c r="D47" s="75">
         <v>44292</v>
       </c>
-      <c r="E47" s="66"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -7051,7 +7068,7 @@
       <c r="CX47" s="33"/>
       <c r="CY47" s="21"/>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>15</v>
       </c>
@@ -7166,7 +7183,7 @@
       <c r="CX48" s="46"/>
       <c r="CY48" s="21"/>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>20</v>
       </c>
@@ -7281,18 +7298,18 @@
       <c r="CX49" s="42"/>
       <c r="CY49" s="21"/>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
+    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
       <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="63">
         <v>6.04</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="78">
         <v>4.05</v>
       </c>
       <c r="F50" s="31"/>
@@ -7394,16 +7411,16 @@
       <c r="CX50" s="33"/>
       <c r="CY50" s="21"/>
     </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
+    <row r="51" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A51" s="68"/>
       <c r="B51" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="78"/>
       <c r="F51" s="31"/>
       <c r="G51" s="32"/>
       <c r="H51" s="32"/>
@@ -7503,7 +7520,7 @@
       <c r="CX51" s="33"/>
       <c r="CY51" s="21"/>
     </row>
-    <row r="52" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -7618,18 +7635,18 @@
       <c r="CX52" s="42"/>
       <c r="CY52" s="21"/>
     </row>
-    <row r="53" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
+    <row r="53" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A53" s="67"/>
       <c r="B53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="63">
         <v>6.04</v>
       </c>
-      <c r="E53" s="64">
+      <c r="E53" s="78">
         <v>4.05</v>
       </c>
       <c r="F53" s="31"/>
@@ -7731,16 +7748,16 @@
       <c r="CX53" s="33"/>
       <c r="CY53" s="21"/>
     </row>
-    <row r="54" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
+    <row r="54" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A54" s="68"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="68"/>
-      <c r="E54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="78"/>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -7840,7 +7857,7 @@
       <c r="CX54" s="33"/>
       <c r="CY54" s="21"/>
     </row>
-    <row r="55" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
@@ -7955,18 +7972,18 @@
       <c r="CX55" s="42"/>
       <c r="CY55" s="21"/>
     </row>
-    <row r="56" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+    <row r="56" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
       <c r="B56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="63">
         <v>6.04</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="78">
         <v>4.05</v>
       </c>
       <c r="F56" s="31"/>
@@ -8068,16 +8085,16 @@
       <c r="CX56" s="33"/>
       <c r="CY56" s="21"/>
     </row>
-    <row r="57" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+    <row r="57" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A57" s="68"/>
       <c r="B57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="78"/>
       <c r="F57" s="31"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -8177,7 +8194,7 @@
       <c r="CX57" s="33"/>
       <c r="CY57" s="21"/>
     </row>
-    <row r="58" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
@@ -8292,18 +8309,18 @@
       <c r="CX58" s="42"/>
       <c r="CY58" s="21"/>
     </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
+    <row r="59" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A59" s="67"/>
       <c r="B59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="67">
+      <c r="D59" s="63">
         <v>6.04</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="78">
         <v>4.05</v>
       </c>
       <c r="F59" s="31"/>
@@ -8405,16 +8422,16 @@
       <c r="CX59" s="33"/>
       <c r="CY59" s="21"/>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
+    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A60" s="68"/>
       <c r="B60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="31"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
@@ -8514,7 +8531,7 @@
       <c r="CX60" s="33"/>
       <c r="CY60" s="21"/>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
@@ -8629,18 +8646,18 @@
       <c r="CX61" s="42"/>
       <c r="CY61" s="21"/>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A62" s="61"/>
+    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A62" s="67"/>
       <c r="B62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="63">
         <v>6.04</v>
       </c>
-      <c r="E62" s="64">
+      <c r="E62" s="78">
         <v>4.05</v>
       </c>
       <c r="F62" s="31"/>
@@ -8742,16 +8759,16 @@
       <c r="CX62" s="33"/>
       <c r="CY62" s="21"/>
     </row>
-    <row r="63" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+    <row r="63" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A63" s="68"/>
       <c r="B63" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="78"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
@@ -8851,16 +8868,16 @@
       <c r="CX63" s="33"/>
       <c r="CY63" s="21"/>
     </row>
-    <row r="64" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="65">
+      <c r="D64" s="75">
         <v>44320</v>
       </c>
-      <c r="E64" s="66"/>
+      <c r="E64" s="76"/>
       <c r="F64" s="31"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
@@ -8960,7 +8977,7 @@
       <c r="CX64" s="33"/>
       <c r="CY64" s="21"/>
     </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>17</v>
       </c>
@@ -9075,7 +9092,7 @@
       <c r="CX65" s="46"/>
       <c r="CY65" s="21"/>
     </row>
-    <row r="66" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
@@ -9190,18 +9207,18 @@
       <c r="CX66" s="42"/>
       <c r="CY66" s="21"/>
     </row>
-    <row r="67" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
+    <row r="67" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
       <c r="B67" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="63">
+      <c r="D67" s="77">
         <v>4.05</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="78">
         <v>18.04</v>
       </c>
       <c r="F67" s="31"/>
@@ -9303,16 +9320,16 @@
       <c r="CX67" s="33"/>
       <c r="CY67" s="21"/>
     </row>
-    <row r="68" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+    <row r="68" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A68" s="68"/>
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="63"/>
-      <c r="E68" s="64"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="78"/>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -9412,7 +9429,7 @@
       <c r="CX68" s="33"/>
       <c r="CY68" s="21"/>
     </row>
-    <row r="69" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -9527,18 +9544,18 @@
       <c r="CX69" s="42"/>
       <c r="CY69" s="21"/>
     </row>
-    <row r="70" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A70" s="61"/>
+    <row r="70" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
       <c r="B70" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="77">
         <v>4.05</v>
       </c>
-      <c r="E70" s="64">
+      <c r="E70" s="78">
         <v>18.04</v>
       </c>
       <c r="F70" s="31"/>
@@ -9640,16 +9657,16 @@
       <c r="CX70" s="33"/>
       <c r="CY70" s="21"/>
     </row>
-    <row r="71" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+    <row r="71" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A71" s="68"/>
       <c r="B71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="64"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="31"/>
       <c r="G71" s="32"/>
       <c r="H71" s="32"/>
@@ -9749,7 +9766,7 @@
       <c r="CX71" s="33"/>
       <c r="CY71" s="21"/>
     </row>
-    <row r="72" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>22</v>
       </c>
@@ -9864,18 +9881,18 @@
       <c r="CX72" s="42"/>
       <c r="CY72" s="21"/>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
+    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
       <c r="B73" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="63">
+      <c r="D73" s="77">
         <v>4.05</v>
       </c>
-      <c r="E73" s="64">
+      <c r="E73" s="78">
         <v>18.04</v>
       </c>
       <c r="F73" s="31"/>
@@ -9977,16 +9994,16 @@
       <c r="CX73" s="33"/>
       <c r="CY73" s="21"/>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A74" s="68"/>
       <c r="B74" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="64"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
@@ -10086,7 +10103,7 @@
       <c r="CX74" s="33"/>
       <c r="CY74" s="21"/>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
@@ -10201,18 +10218,18 @@
       <c r="CX75" s="42"/>
       <c r="CY75" s="21"/>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A76" s="61"/>
+    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
       <c r="B76" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="77">
         <v>4.05</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="78">
         <v>18.04</v>
       </c>
       <c r="F76" s="31"/>
@@ -10314,16 +10331,16 @@
       <c r="CX76" s="33"/>
       <c r="CY76" s="21"/>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A77" s="68"/>
       <c r="B77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="64"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="78"/>
       <c r="F77" s="31"/>
       <c r="G77" s="32"/>
       <c r="H77" s="32"/>
@@ -10423,7 +10440,7 @@
       <c r="CX77" s="33"/>
       <c r="CY77" s="21"/>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -10538,18 +10555,18 @@
       <c r="CX78" s="42"/>
       <c r="CY78" s="21"/>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A79" s="61"/>
+    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A79" s="67"/>
       <c r="B79" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="63">
+      <c r="D79" s="77">
         <v>4.05</v>
       </c>
-      <c r="E79" s="64">
+      <c r="E79" s="78">
         <v>18.04</v>
       </c>
       <c r="F79" s="31"/>
@@ -10651,16 +10668,16 @@
       <c r="CX79" s="33"/>
       <c r="CY79" s="21"/>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A80" s="62"/>
+    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A80" s="68"/>
       <c r="B80" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="64"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="78"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -10760,16 +10777,16 @@
       <c r="CX80" s="33"/>
       <c r="CY80" s="21"/>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="65">
+      <c r="D81" s="75">
         <v>44334</v>
       </c>
-      <c r="E81" s="66"/>
+      <c r="E81" s="76"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
@@ -10869,7 +10886,7 @@
       <c r="CX81" s="33"/>
       <c r="CY81" s="21"/>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>18</v>
       </c>
@@ -10984,7 +11001,7 @@
       <c r="CX82" s="46"/>
       <c r="CY82" s="21"/>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>20</v>
       </c>
@@ -11099,18 +11116,18 @@
       <c r="CX83" s="42"/>
       <c r="CY83" s="21"/>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
+    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
       <c r="B84" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="63">
+      <c r="D84" s="77">
         <v>18.04</v>
       </c>
-      <c r="E84" s="64">
+      <c r="E84" s="78">
         <v>25.04</v>
       </c>
       <c r="F84" s="31"/>
@@ -11212,16 +11229,16 @@
       <c r="CX84" s="33"/>
       <c r="CY84" s="21"/>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A85" s="68"/>
       <c r="B85" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="64"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="78"/>
       <c r="F85" s="31"/>
       <c r="G85" s="32"/>
       <c r="H85" s="32"/>
@@ -11321,7 +11338,7 @@
       <c r="CX85" s="33"/>
       <c r="CY85" s="21"/>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -11436,18 +11453,18 @@
       <c r="CX86" s="42"/>
       <c r="CY86" s="21"/>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
+    <row r="87" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
       <c r="B87" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="63">
+      <c r="D87" s="77">
         <v>18.04</v>
       </c>
-      <c r="E87" s="64">
+      <c r="E87" s="78">
         <v>25.04</v>
       </c>
       <c r="F87" s="31"/>
@@ -11549,16 +11566,16 @@
       <c r="CX87" s="33"/>
       <c r="CY87" s="21"/>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+    <row r="88" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A88" s="68"/>
       <c r="B88" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="63"/>
-      <c r="E88" s="64"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="78"/>
       <c r="F88" s="31"/>
       <c r="G88" s="32"/>
       <c r="H88" s="32"/>
@@ -11658,7 +11675,7 @@
       <c r="CX88" s="33"/>
       <c r="CY88" s="21"/>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -11773,18 +11790,18 @@
       <c r="CX89" s="42"/>
       <c r="CY89" s="21"/>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A90" s="61"/>
+    <row r="90" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A90" s="67"/>
       <c r="B90" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="63">
+      <c r="D90" s="77">
         <v>18.04</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="78">
         <v>25.04</v>
       </c>
       <c r="F90" s="31"/>
@@ -11886,16 +11903,16 @@
       <c r="CX90" s="33"/>
       <c r="CY90" s="21"/>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+    <row r="91" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A91" s="68"/>
       <c r="B91" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="78"/>
       <c r="F91" s="31"/>
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
@@ -11995,7 +12012,7 @@
       <c r="CX91" s="33"/>
       <c r="CY91" s="21"/>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>23</v>
       </c>
@@ -12110,18 +12127,18 @@
       <c r="CX92" s="42"/>
       <c r="CY92" s="21"/>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A93" s="61"/>
+    <row r="93" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A93" s="67"/>
       <c r="B93" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="63">
+      <c r="D93" s="77">
         <v>18.04</v>
       </c>
-      <c r="E93" s="64">
+      <c r="E93" s="78">
         <v>25.04</v>
       </c>
       <c r="F93" s="31"/>
@@ -12223,16 +12240,16 @@
       <c r="CX93" s="33"/>
       <c r="CY93" s="21"/>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+    <row r="94" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A94" s="68"/>
       <c r="B94" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="64"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="78"/>
       <c r="F94" s="31"/>
       <c r="G94" s="32"/>
       <c r="H94" s="32"/>
@@ -12332,7 +12349,7 @@
       <c r="CX94" s="33"/>
       <c r="CY94" s="21"/>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>24</v>
       </c>
@@ -12447,18 +12464,18 @@
       <c r="CX95" s="42"/>
       <c r="CY95" s="21"/>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A96" s="61"/>
+    <row r="96" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A96" s="67"/>
       <c r="B96" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="63">
+      <c r="D96" s="77">
         <v>18.04</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="78">
         <v>25.04</v>
       </c>
       <c r="F96" s="31"/>
@@ -12560,16 +12577,16 @@
       <c r="CX96" s="33"/>
       <c r="CY96" s="21"/>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
+    <row r="97" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A97" s="68"/>
       <c r="B97" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="64"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="78"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="32"/>
@@ -12669,16 +12686,16 @@
       <c r="CX97" s="33"/>
       <c r="CY97" s="21"/>
     </row>
-    <row r="98" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
-      <c r="D98" s="65">
+      <c r="D98" s="75">
         <v>44348</v>
       </c>
-      <c r="E98" s="66"/>
+      <c r="E98" s="76"/>
       <c r="F98" s="31"/>
       <c r="G98" s="32"/>
       <c r="H98" s="32"/>
@@ -12778,7 +12795,7 @@
       <c r="CX98" s="33"/>
       <c r="CY98" s="21"/>
     </row>
-    <row r="99" spans="1:103" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -12883,27 +12900,27 @@
       <c r="CX99" s="47"/>
       <c r="CY99" s="11"/>
     </row>
-    <row r="101" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
       <c r="F102" s="49"/>
     </row>
-    <row r="103" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D103" s="26"/>
       <c r="E103" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F103" s="50"/>
     </row>
-    <row r="104" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:103" x14ac:dyDescent="0.25">
       <c r="D104" s="28"/>
       <c r="E104" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" spans="1:103" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="29"/>
       <c r="E105" s="27" t="s">
         <v>27</v>
@@ -12912,31 +12929,61 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="D30:E30"/>
@@ -12953,62 +13000,32 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
